--- a/medicine/Autisme/Good_Doctor_(série_télévisée,_2017)/Good_Doctor_(série_télévisée,_2017).xlsx
+++ b/medicine/Autisme/Good_Doctor_(série_télévisée,_2017)/Good_Doctor_(série_télévisée,_2017).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Good Doctor ou Le Bon Docteur au Québec (The Good Doctor) est une série télévisée dramatique américaine en 126 épisodes de 42 minutes développée par David Shore, fondée sur la série sud-coréenne du même nom, et diffusée entre le 25 septembre 2017[1] et le 21 mai 2024 sur le réseau ABC et en simultané sur le réseau CTV[2] au Canada.
-En Suisse, la série est diffusée depuis le 19 août 2018 sur RTS Un[3] ; en Belgique, depuis le 23 août 2018 sur La Une ; en France depuis le 28 août 2018[4] sur TF1[5] ; et au Québec à partir du 3 janvier 2019 sur le réseau TVA[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Doctor ou Le Bon Docteur au Québec (The Good Doctor) est une série télévisée dramatique américaine en 126 épisodes de 42 minutes développée par David Shore, fondée sur la série sud-coréenne du même nom, et diffusée entre le 25 septembre 2017 et le 21 mai 2024 sur le réseau ABC et en simultané sur le réseau CTV au Canada.
+En Suisse, la série est diffusée depuis le 19 août 2018 sur RTS Un ; en Belgique, depuis le 23 août 2018 sur La Une ; en France depuis le 28 août 2018 sur TF1 ; et au Québec à partir du 3 janvier 2019 sur le réseau TVA.
 La série est produite par Sony Pictures Television et ABC Studios, en association avec les sociétés de production Shore Z Productions, 3AD et Entermedia. David Shore sert de showrunner et Daniel Dae Kim est le producteur délégué de la série.
 La série met en vedette Freddie Highmore dans le rôle de Shaun Murphy, un jeune autiste interne en chirurgie à l'hôpital San Jose St. Bonaventure. Antonia Thomas, Hill Harper, Richard Schiff, Will Yun Lee, Christina Chang, Paige Spara et Fiona Gubelmann jouent également dans la série.
 La série a reçu des avis mitigés de la part des critiques, avec des éloges particuliers pour la performance de Freddie Highmore, tandis que la représentation de l'autisme ne faisait pas l'unanimité.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shaun Murphy est un jeune docteur autiste savant. Atteint du syndrome d'Asperger[7], il est doté d'une très grande intelligence, mais a également beaucoup de difficultés à communiquer et à gérer les interactions sociales.
-Rêvant de devenir chirurgien, il intègre en tant qu'interne le prestigieux Saint Bonaventure Hospital de San José où il est soutenu par le docteur Aaron Glassman, son mentor depuis l'âge de quatorze ans. Celui-ci met son poste de directeur de l’hôpital en danger pour l'engager[8]. Débordant d'optimisme, Shaun suscite vite de l'admiration, mais apprend aussi à surmonter les préjugés de ses pairs sur son TSA, en prouvant ses compétences[9]. Confronté à des dilemmes, il relève en permanence le défi de ces cas chirurgicaux stimulants[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shaun Murphy est un jeune docteur autiste savant. Atteint du syndrome d'Asperger, il est doté d'une très grande intelligence, mais a également beaucoup de difficultés à communiquer et à gérer les interactions sociales.
+Rêvant de devenir chirurgien, il intègre en tant qu'interne le prestigieux Saint Bonaventure Hospital de San José où il est soutenu par le docteur Aaron Glassman, son mentor depuis l'âge de quatorze ans. Celui-ci met son poste de directeur de l’hôpital en danger pour l'engager. Débordant d'optimisme, Shaun suscite vite de l'admiration, mais apprend aussi à surmonter les préjugés de ses pairs sur son TSA, en prouvant ses compétences. Confronté à des dilemmes, il relève en permanence le défi de ces cas chirurgicaux stimulants.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Freddie Highmore (VF : Antoine Schoumsky) : Dr Shaun Murphy
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Freddie Highmore (VF : Antoine Schoumsky) : Dr Shaun Murphy
 Richard Schiff (VF : Gabriel Le Doze) : Dr Aaron Glassman
 Fiona Gubelmann (VF : Aurore Bonjour) : Dr Morgan Reznick (depuis la saison 2 - récurrente saison 1)
 Will Yun Lee (VF : Olivier Chauvel) : Dr Alex Park (depuis la saison 2 - récurrent saison 1)
@@ -562,8 +581,43 @@
 			Richard Schiff dans le rôle du Dr Aaron Glassman
 			Fiona Gubelmann dans le rôle du Dr Morgan Reznick
 			Will Yun Lee dans le rôle du Dr Alex Park
-Anciens acteurs principaux
-Chuku Modu (VF : Pascal Nowak) : Dr Jared Kalu (saison 1 - invité saison 2 - récurrent saison 6)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciens acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chuku Modu (VF : Pascal Nowak) : Dr Jared Kalu (saison 1 - invité saison 2 - récurrent saison 6)
 Beau Garrett (VF : Stéphanie Lafforgue) : Jessica Preston (saison 1 - invitée saison 4)
 Tamlyn Tomita (VF : Yumi Fujimori) : Allegra Aoki (saisons 1 et 2 - invitée saison 3)
 Nicholas Gonzalez (VF : Stéphane Fourreau) : Dr Neil Melendez (saisons 1 à 3 - invité saison 4)
@@ -577,8 +631,43 @@
 			Nicholas Gonzalez dans le rôle du Dr Neil Melendez
 			Jasika Nicole dans le rôle de Dr Carly Lever
 			Hill Harper dans le rôle du Dr Marcus Andrews
-Acteurs récurrents
-Dylan Kingwell (VF : Kylian Trouillard) : Steve Murphy, le frère de Shaun (saisons 1, 3 et 6) / Evan Gallico (saison 1 épisode 5)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dylan Kingwell (VF : Kylian Trouillard) : Steve Murphy, le frère de Shaun (saisons 1, 3 et 6) / Evan Gallico (saison 1 épisode 5)
 Graham Verchere (en) (VF : Victor Quilichini) : Shaun Murphy jeune (saison 1)
 Elfina Luk (VF : Gaëlle Savary) : Infirmière Dalisay Villanueva
 Teryl Rothery (VF : Juliette Mailhé) : Jan « JL » Lancaster
@@ -594,9 +683,43 @@
 Rachel Bay Jones (VF : Juliette Poissonnier) : Salen Morrison (saison 5)
 Hollis Jane Andrews (VF : Ninon Moreau) : Sophie (saison 5)
 Giacomo Baessato (VF : Stéphane Pouplard) : Jerome (depuis la saison 5)
-Savannah Welch (VF : Marie Diot) : Dr Danica « Danni » Powell (saison 6)
-Invités
-Irene Keng (en) : Dr Elle McLean (épisode 1)
+Savannah Welch (VF : Marie Diot) : Dr Danica « Danni » Powell (saison 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irene Keng (en) : Dr Elle McLean (épisode 1)
 Eve Gordon : infirmière Fryday
 Necar Zadegan : Dr Jordan Ko
 Eric Winter : Dr Matt Coyle
@@ -608,69 +731,214 @@
 Annette O'Toole : Caroline Reznik (mère du Dr Morgan Reznick)
 Allen Leech (VF : Yannick Blivet) : Ariel Reznik (frère du Dr Morgan Reznick)
 Moises Arias : le patient Luka
-Carly Pope (VF : Sandra Valentin) : Lily[11] (saison 4, épisodes 1 et 2)
-Priscilla Faia : Dr Cintia D'Souza[12] (saison 4, épisode 9)
+Carly Pope (VF : Sandra Valentin) : Lily (saison 4, épisodes 1 et 2)
+Priscilla Faia : Dr Cintia D'Souza (saison 4, épisode 9)
 Esmeralda Pimentel (VF : Antonella Colapietro) : infirmière Ana Morales (saison 4, épisode 19 et 20)
 Michael Muhney : M. Gallico (saison 1, épisode 5)
 Version française
 Société de doublage : Cinéphase
 Direction artistique : Thomas Charlet ; Catherine Le Lann (saison 1 seulement)
- Source et légende : version française (VF) sur RS Doublage[13]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+ Source et légende : version française (VF) sur RS Doublage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Développement et genèse
-En août 2014, le producteur Daniel Dae Kim (acteur dans Hawaii 5-0) souhaite créer un remake américain de la série coréenne à succès The Good Doctor (굿 닥터) pour le réseau CBS[14]. Toutefois, il abandonne ce projet. L'idée refait surface en octobre 2016, cette fois-ci avec la participation de David Shore pour le réseau ABC[15], qui commande le pilote à la mi-janvier 2017[16].
-Le 3 octobre 2017, après seulement deux diffusions, ABC commande cinq épisodes supplémentaires, étalant la saison sur 18 épisodes[17].
-Le 7 mars 2018, la série est renouvelée pour une deuxième saison[18].
-Le 5 février 2019, ABC renouvelle la série pour une troisième saison[19].
-Le 11 février 2020, la série est renouvelée pour une quatrième saison[20].
-Le 3 mai 2021, la série est une renouvelée pour une cinquième saison[21].
-Le 30 mars 2022, ABC renouvelle la série pour une sixième saison[22].
-Le 19 avril 2023, la série est renouvelée pour une septième saison[23].
-Le 11 janvier 2024, ABC annule la série après sept saisons[24].
-Distribution des rôles
-Le casting débute en février 2017. Les acteurs sont choisis dans cet ordre : Antonia Thomas[25], Freddie Highmore et Nicholas Gonzalez[26], Chuku Modu[27], Hill Harper et Irene Keng[28], Richard Schiff[29] et Beau Garrett[30].
-En avril 2018, Will Yun Lee, Fiona Gubelmann, Christina Chang et Paige Spara sont promus à la distribution principale pour la deuxième saison, et le départ de Chuku Modu est confirmé[31]. En juin, Lisa Edelstein décroche un rôle récurrent[32]. En septembre, l'absence de Beau Garrett des synopsis de la deuxième saison est remarquée, son départ confirmé[33].
-Récurrente durant la deuxième saison, Jasika Nicole est promue à la distribution principale en juillet 2019[34]. Elle quitte la série à l'issue de la saison 3 en 2020[35].
-Nicholas Gonzalez quitte la série à l'issue de la saison 3, à la suite d'une décision créative[35],[36].
-Beau Garrett reprend son rôle de Jessica Preston lors de la première de la quatrième saison en tant qu'invitée[37]. La série ajoute quatre nouveaux internes à titre récurrent à partir du troisième épisode, interprétés par Noah Galvin, Summer Brown, Bria Samoné Henderson et Brian Marc[38]. De plus, Carly Pope est invitée[39].
-À la fin de la quatrième saison, la production promeut Bria Samoné Henderson et Noah Galvin à la distribution principale[40], puis Antonia Thomas annonce son départ de la série[41] mais reviendra en tant qu'invitée[42].
-Ayant apparu dans les deux derniers épisodes de la quatrième saison, la production promut Osvaldo Benavides à la distribution principale en juin 2021 pour la cinquième saison[43]. Il quitte après quatre épisodes[44].
-En mars 2023, Chuku Modu reprend son rôle pour le reste de la sixième saison de façon récurrente[45].
-Tournage
- Le tournage du pilote a commencé le 21 mars jusqu'au 6 avril 2017 à Vancouver en Colombie-Britannique[47],[48], la suite du tournage de la série a débuté le 26 juillet 2017 et s'est terminée le 1er mars 2018[49].
-Musique
-La musique est composée par Dan Romer (en)[50].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Développement et genèse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2014, le producteur Daniel Dae Kim (acteur dans Hawaii 5-0) souhaite créer un remake américain de la série coréenne à succès The Good Doctor (굿 닥터) pour le réseau CBS. Toutefois, il abandonne ce projet. L'idée refait surface en octobre 2016, cette fois-ci avec la participation de David Shore pour le réseau ABC, qui commande le pilote à la mi-janvier 2017.
+Le 3 octobre 2017, après seulement deux diffusions, ABC commande cinq épisodes supplémentaires, étalant la saison sur 18 épisodes.
+Le 7 mars 2018, la série est renouvelée pour une deuxième saison.
+Le 5 février 2019, ABC renouvelle la série pour une troisième saison.
+Le 11 février 2020, la série est renouvelée pour une quatrième saison.
+Le 3 mai 2021, la série est une renouvelée pour une cinquième saison.
+Le 30 mars 2022, ABC renouvelle la série pour une sixième saison.
+Le 19 avril 2023, la série est renouvelée pour une septième saison.
+Le 11 janvier 2024, ABC annule la série après sept saisons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le casting débute en février 2017. Les acteurs sont choisis dans cet ordre : Antonia Thomas, Freddie Highmore et Nicholas Gonzalez, Chuku Modu, Hill Harper et Irene Keng, Richard Schiff et Beau Garrett.
+En avril 2018, Will Yun Lee, Fiona Gubelmann, Christina Chang et Paige Spara sont promus à la distribution principale pour la deuxième saison, et le départ de Chuku Modu est confirmé. En juin, Lisa Edelstein décroche un rôle récurrent. En septembre, l'absence de Beau Garrett des synopsis de la deuxième saison est remarquée, son départ confirmé.
+Récurrente durant la deuxième saison, Jasika Nicole est promue à la distribution principale en juillet 2019. Elle quitte la série à l'issue de la saison 3 en 2020.
+Nicholas Gonzalez quitte la série à l'issue de la saison 3, à la suite d'une décision créative,.
+Beau Garrett reprend son rôle de Jessica Preston lors de la première de la quatrième saison en tant qu'invitée. La série ajoute quatre nouveaux internes à titre récurrent à partir du troisième épisode, interprétés par Noah Galvin, Summer Brown, Bria Samoné Henderson et Brian Marc. De plus, Carly Pope est invitée.
+À la fin de la quatrième saison, la production promeut Bria Samoné Henderson et Noah Galvin à la distribution principale, puis Antonia Thomas annonce son départ de la série mais reviendra en tant qu'invitée.
+Ayant apparu dans les deux derniers épisodes de la quatrième saison, la production promut Osvaldo Benavides à la distribution principale en juin 2021 pour la cinquième saison. Il quitte après quatre épisodes.
+En mars 2023, Chuku Modu reprend son rôle pour le reste de la sixième saison de façon récurrente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le tournage du pilote a commencé le 21 mars jusqu'au 6 avril 2017 à Vancouver en Colombie-Britannique la suite du tournage de la série a débuté le 26 juillet 2017 et s'est terminée le 1er mars 2018.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique est composée par Dan Romer (en).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The Good Doctor
 Titre français : Good Doctor
 Titre québécois : Le Bon Docteur
@@ -704,78 +972,158 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diffusion télévisée
-Good Doctor a commencé à être diffusé le 25 septembre 2017 sur ABC aux États-Unis et sur CTV au Canada.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Diffusion télévisée</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Doctor a commencé à être diffusé le 25 septembre 2017 sur ABC aux États-Unis et sur CTV au Canada.
 Sky Witness a acquis les droits de diffusion pour le Royaume-Uni et l'Irlande. 
 Seven Network diffuse la série en Australie. 
 Wowow le plus grand réseau privé japonais de télévision par satellite a acquis les droits de diffusion de la série à partir d'avril 2018.
 Aux Pays-Bas, la série a commencé à être diffusée le 29 janvier 2018 sur RTL 4 et sur vidéo à la demande Videoland. 
 En Italie, la série a été diffusée pour la première fois sur Rai 1 le 17 juillet 2018, établissant un record de 5,2 millions de téléspectateurs au total de 21 h 30 à 23 h 45, atteignant une part de 31,7 % dans le troisième épisode et entrant dans le Top 10 de la télévision étrangère la plus regardée. 
 Au Brésil, la série a été la première production internationale à sortir sur le service de vidéo à la demande Globoplay de Rede Globo. Le 27 août, les deux premiers épisodes ont été diffusés sur la chaîne de télévision gratuite Globo pour annoncer le lancement de la série dans le service de streaming.
-Promotion
-Une bande-annonce complète a été publiée lors de la présentation d'Upfront en mai 2017, La bande-annonce avait été vue plus de 25,4 millions de fois après une semaine de sa sortie, dont plus de 22 millions de vues sur Facebook.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Promotion</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une bande-annonce complète a été publiée lors de la présentation d'Upfront en mai 2017, La bande-annonce avait été vue plus de 25,4 millions de fois après une semaine de sa sortie, dont plus de 22 millions de vues sur Facebook.
 Le pilote a été projeté lors de l'événement ABC's PaleyFest le 9 septembre 2017. Le 22 mars 2018, les membres de la distribution ainsi que les producteurs délégués David Shore et Daniel Dae Kim ont assisté à la 35e édition du PaleyFest pour promouvoir la série, ainsi qu'une projection de la saison.
-Streaming
-En mai 2018, Hulu a acquis les droits SVOD sur les nouveaux épisodes et la diffuser exclusivement sur Hulu, les futurs épisodes sont disponibles le lendemain de leur diffusion originale sur ABC. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Streaming</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2018, Hulu a acquis les droits SVOD sur les nouveaux épisodes et la diffuser exclusivement sur Hulu, les futurs épisodes sont disponibles le lendemain de leur diffusion originale sur ABC. 
 En Nouvelle-Zélande, la série est disponible exclusivement en streaming sur Lightbox.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2017-2018)
-Elle a été diffusée du 25 septembre 2017 au 26 mars 2018.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Première saison (2017-2018)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été diffusée du 25 septembre 2017 au 26 mars 2018.
 Éclat de verre (Burnt Food)
 Sale boulot (Mount Rushmore)
 Contre la montre (Oliver)
@@ -794,9 +1142,44 @@
 Lève-toi et marche (Pain)
 Le Sourire aux lèvres (Smile)
 Assumer les conséquences (More)
-Deuxième saison (2018-2019)
-Le tournage de la deuxième saison a commencé le 27 juin 2018 et s'est terminé le 12 février 2019.
-Cette saison de 18 épisodes a été diffusée du 24 septembre 2018[51] au 11 mars 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2018-2019)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage de la deuxième saison a commencé le 27 juin 2018 et s'est terminé le 12 février 2019.
+Cette saison de 18 épisodes a été diffusée du 24 septembre 2018 au 11 mars 2019.
 Adieux et retrouvailles (Hello)
 Pieux mensonges (Middle Ground)
 36 heures de garde (36 Hours)
@@ -815,9 +1198,44 @@
 Guérison divine (Believe)
 Je suis chirurgien (Breakdown)
 Et ils vécurent heureux (Trampoline)
-Troisième saison (2019-2020)
-Le tournage de la troisième saison a commencé le 19 juin 2019 et s'est terminé le 3 mars 2020.
-Elle est diffusée du 23 septembre 2019[52] au 30 mars 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Troisième saison (2019-2020)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage de la troisième saison a commencé le 19 juin 2019 et s'est terminé le 3 mars 2020.
+Elle est diffusée du 23 septembre 2019 au 30 mars 2020.
 Shaun et l'amour (Disaster)
 Le Prix fort (Debts)
 L'Épreuve de Claire (Claire)
@@ -838,9 +1256,44 @@
 Cœurs brisés (Heartbreak)
 Tremblement de terre, partie 1 (Hurt)
 Tremblement de terre, partie 2 (I Love You)
-Quatrième saison (2020-2021)
-Cette saison de vingt épisodes est diffusée depuis le 2 novembre 2020[53] aux États-Unis.
-Les deux premiers épisodes se déroulent au printemps 2020 lors de la première vague de pandémie de Covid-19 aux États-Unis. Par la suite, les épisodes se déroulent dans un monde où la pandémie est terminée[54].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2020-2021)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison de vingt épisodes est diffusée depuis le 2 novembre 2020 aux États-Unis.
+Les deux premiers épisodes se déroulent au printemps 2020 lors de la première vague de pandémie de Covid-19 aux États-Unis. Par la suite, les épisodes se déroulent dans un monde où la pandémie est terminée.
 Au début du 3e épisode, Freddie Highmore dit « Dans ce nouvel épisode, nous nous plaçons dans l'avenir tel que nous espérons le voir, un avenir où on n'aura plus besoin de masque, ni d'aucune autre précaution pour échapper à la Covid. En attendant ce jour, pensez à vous protéger et à protéger les autres. »
 En première ligne, partie 1 (Frontline Part 1)
 En première ligne, partie 2 (Frontline Part 2)
@@ -862,8 +1315,43 @@
 Réparer les blessures (Forgive or Forget)
 Mission humanitaire (Venga)
 Si on allait de l'avant (Vamos)
-Cinquième saison (2021-2022)
-Elle est diffusée depuis le 27 septembre 2021[55]. Après les sept premiers épisodes, la série prend une pause hivernale[56] et reprend le 28 février 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cinquième saison (2021-2022)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée depuis le 27 septembre 2021. Après les sept premiers épisodes, la série prend une pause hivernale et reprend le 28 février 2022.
 Nouvelle donne (New Beginnings)
 C'est pas du gâteau (Piece of Cake)
 Le Prix de la guérison (Measure of Intelligence)
@@ -882,9 +1370,44 @@
 Une source d'inspiration (The Shaun Show)
 Le Grand Jour (The Lea Show)
 Un bon père (Sons)
-Sixième saison (2022-2023)
-Elle est diffusée depuis le 3 octobre 2022[57].
-En Belgique, elle est diffusée depuis le 12 août 2023 sur Tipik[58].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sixième saison (2022-2023)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diffusée depuis le 3 octobre 2022.
+En Belgique, elle est diffusée depuis le 12 août 2023 sur Tipik.
 Le Trouble-fête (Afterparty)
 En mode battante (Change of Perspective)
 La Vie de couple (A Big Sign)
@@ -897,7 +1420,7 @@
 Quelques complications (Quiet and Loud)
 Break prénatal (The Good Boy)
 Un choix à assumer (365 Degrees)
-39 différences / Toutes nos différences[59] (39 Differences)
+39 différences / Toutes nos différences (39 Differences)
 Cœur de pierre (Hard Heart)
 Des amis de longue date (Old Friends)
 Sur le banc des accusés (The Good Lawyer) (spin-off)
@@ -907,8 +1430,43 @@
 Un homme béni (Blessed)
 Une merveilleuse journée (A Beautiful Day)
 La Naissance (Love's Labor)
-Septième saison (2024)
-Cette septième et dernière saison[60] de dix épisodes est diffusée depuis le 20 février 2024[61].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Septième saison (2024)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette septième et dernière saison de dix épisodes est diffusée depuis le 20 février 2024.
 Baby, Baby, Baby
 Skin in the Game
 Critical Support
@@ -923,41 +1481,88 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
-États-Unis
-Le pilote a été vu par 11,22 millions de téléspectateurs[62] aux États-Unis, et 2,60 millions[63] au Canada.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pilote a été vu par 11,22 millions de téléspectateurs aux États-Unis, et 2,60 millions au Canada.
 La première saison de la série a obtenu une note de 2,2 / 9 dans la tranche d'âge de 18 à 49 ans, avec 11,22 millions de téléspectateurs, ce qui en fait le premier drame le plus regardé du lundi sur ABC en 21 ans, depuis la série Dangerous Minds (en) en septembre 1996, et le drame le plus apprécié du lundi dans la tranche démographique de 18 à 49 ans en 8,5 ans, depuis Castle en mars 2009. 
 Compte tenu des audiences en direct et de sept jours, le pilote a été regardé par un total de 19,2 millions de téléspectateurs et a établi un record pour les téléspectateurs DVR avec 7,9 millions, dépassant le record de 7,67 millions établi par le pilote de Designated Survivor en 2016. 
 Selon le numéro du 13-26 novembre de TV Guide, l'épisode du 9 octobre a attiré 18,2 millions de téléspectateurs, battant à la fois les autres séries de CBS dont NCIS et The Big Bang Theory pour la série en prime time la plus vue cette semaine.
-France
-Saison 1
-Le premier épisode a été vu par plus de 6,68 millions de téléspectateurs en France sur TF1 soit 31,7 % des individus de quatre ans et plus et 47,9 % des femmes responsables des achats de moins de cinquante ans, selon Médiamétrie[80].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saison 1
+Le premier épisode a été vu par plus de 6,68 millions de téléspectateurs en France sur TF1 soit 31,7 % des individus de quatre ans et plus et 47,9 % des femmes responsables des achats de moins de cinquante ans, selon Médiamétrie.
 Un excellent démarrage confirmé à J+7 puisque Good Doctor a également trouvé de très nombreux curieux grâce aux replays. Ainsi, le premier épisode de la soirée grimpe à 7,95 millions de téléspectateurs, et progresse ainsi de 1,27 million de curieux. La PDA s'envole également avec 33,2 % des individus de quatre ans et plus (+2,5 points) et 50,4 % des FRDA-50, soit une hausse de 4,2 points par rapport à l'audience veille. Le deuxième épisode de Good Doctor profite également d'un important replay, passant de 6,50 millions de fans à 7,91 millions, soit cette fois un gain de 1,41 million de personnes. La PDA passe à 35,9 % sur l'ensemble du public (+3,2 points) et à 54,0 % sur la cible (+4,4 points).
 Good Doctor confirme ainsi son excellent démarrage, le meilleur d'une série américaine depuis Lost en 2005. Il s'agit par ailleurs de la meilleure audience d'une série étrangère depuis le final de la saison 6 de Mentalist fin 2014 et du plus gros gain historique enregistré en replay pour une série américaine, toutes chaînes confondues malgré une concurrence accrue sur les autres chaines.
 Saison 2
@@ -980,42 +1585,114 @@
 Le 31 août 2022, Les deux premiers épisodes inédits de la soirée ont réuni 2,63 millions de fidèles en moyenne jusqu'à 22 h 50 selon Médiamétrie. La part de marché atteint 15,8 % sur les individus de quatre ans et plus et 24,2 % sur les femmes responsables des achats de moins de cinquante ans.
 Le plus haut chiffre d'audience
 Le plus bas chiffre d'audience
-Critiques
-Sur le site de IMDb la série obtient une note de 8 sur 10 pour une moyenne établie a partir de 110 000 avis. Le site de référencement Allociné note la série 3,9⁄5 sur 6465 notes[130].
-Représentation de l'autisme
-La série fait régulièrement controverse en ce qui concerne sa représentation de l'autisme[131],[132]. Aucun des acteurs principaux n'est autiste, alors qu'il s'agit d'une des principales demandes de représentativité de la part des personnes concernées, notamment en raison de leur exclusion des milieux professionnels[131]. Une partie du public concerné par l'autisme perçoit Shaun Murphy comme un assemblage de comportements stéréotypés, plutôt que comme un personnage autiste crédible[132]. Lydia Brown, de l’Autistic Women &amp; Nonbinary Network, estime que la représentation de Shaun Murphy peut paradoxalement renforcer l'exclusion des personnes autistes dans la société, dans la mesure où la série renforce certains stéréotypes, par exemple quant à l'incapacité des personnes autistes à considérer les autres respectueusement[132]. 
-L'une des scènes de l'épisode de la seconde saison Je suis chirurgien (Breakdown en VO) met en scène Shaun pendant un effondrement sensoriel (meltdown), dû à une sur-stimulation provoquée par son supérieur qui cherche à l'écarter[131]. Si le réalisme de cette scène reste questionnable, elle a donné lieu à de nombreuses parodies moqueuses, voire insultantes envers les personnes autistes, sur le web et en particulier sur TikTok[131],[132],[133] et Twitter[134]. Cette réaction met en lumière le validisme de la société à leur égard, dans un contexte où la même moquerie à l'égard de personnes qui éprouvent des crises de panique ou d'anxiété ne serait pas socialement considérée comme acceptable[131]. De la même façon, un court extrait de la série conçu pour présenter Shaun comme un raciste a refait surface, et est devenu viral en 2023, conduisant à représenter toutes les personnes autistes comme racistes[135].
-Une autre critique envers la série concerne l'entretien d'une confusion entre l'autisme et le syndrome du savant, alors qu'il s'agit de deux conditions distinctes[131]. En réalité, l'association entre autisme et syndrome du savant est très rare[132],[136], Shaun correspondant à un stéréotype médiatique de génie excentrique[137]. Le déroulement du scénario laisse entendre que Shaun doit constamment démontrer de « super-habilités » pour être simplement accepté par ses collègues et ses supérieurs[131].
-Enfin, la série présente constamment la raison des problèmes de relations sociales rencontrés par Shaun comme étant son autisme, même dans des circonstances dans lesquelles d'autres causes pourraient les expliquer[131].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site de IMDb la série obtient une note de 8 sur 10 pour une moyenne établie a partir de 110 000 avis. Le site de référencement Allociné note la série 3,9⁄5 sur 6465 notes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Représentation de l'autisme</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série fait régulièrement controverse en ce qui concerne sa représentation de l'autisme,. Aucun des acteurs principaux n'est autiste, alors qu'il s'agit d'une des principales demandes de représentativité de la part des personnes concernées, notamment en raison de leur exclusion des milieux professionnels. Une partie du public concerné par l'autisme perçoit Shaun Murphy comme un assemblage de comportements stéréotypés, plutôt que comme un personnage autiste crédible. Lydia Brown, de l’Autistic Women &amp; Nonbinary Network, estime que la représentation de Shaun Murphy peut paradoxalement renforcer l'exclusion des personnes autistes dans la société, dans la mesure où la série renforce certains stéréotypes, par exemple quant à l'incapacité des personnes autistes à considérer les autres respectueusement. 
+L'une des scènes de l'épisode de la seconde saison Je suis chirurgien (Breakdown en VO) met en scène Shaun pendant un effondrement sensoriel (meltdown), dû à une sur-stimulation provoquée par son supérieur qui cherche à l'écarter. Si le réalisme de cette scène reste questionnable, elle a donné lieu à de nombreuses parodies moqueuses, voire insultantes envers les personnes autistes, sur le web et en particulier sur TikTok et Twitter. Cette réaction met en lumière le validisme de la société à leur égard, dans un contexte où la même moquerie à l'égard de personnes qui éprouvent des crises de panique ou d'anxiété ne serait pas socialement considérée comme acceptable. De la même façon, un court extrait de la série conçu pour présenter Shaun comme un raciste a refait surface, et est devenu viral en 2023, conduisant à représenter toutes les personnes autistes comme racistes.
+Une autre critique envers la série concerne l'entretien d'une confusion entre l'autisme et le syndrome du savant, alors qu'il s'agit de deux conditions distinctes. En réalité, l'association entre autisme et syndrome du savant est très rare Shaun correspondant à un stéréotype médiatique de génie excentrique. Le déroulement du scénario laisse entendre que Shaun doit constamment démontrer de « super-habilités » pour être simplement accepté par ses collègues et ses supérieurs.
+Enfin, la série présente constamment la raison des problèmes de relations sociales rencontrés par Shaun comme étant son autisme, même dans des circonstances dans lesquelles d'autres causes pourraient les expliquer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Good_Doctor_(série_télévisée,_2017)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Good_Doctor_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2017)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Récompenses pour Good Doctor sur l’Internet Movie Database
 </t>
